--- a/Routes_structure.xlsx
+++ b/Routes_structure.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pn25kdv\Documents\GitHub\Passion_lecture\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E35C6385-8F7F-4CE7-9652-2AD5715BC74C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5515B6B-2531-46E6-B210-454CF824FD94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31770" yWindow="1710" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>JSON</t>
   </si>
@@ -241,6 +241,70 @@
   </si>
   <si>
     <t>/api/auth</t>
+  </si>
+  <si>
+    <t>GET : Récupérer la liste des livres (filtrée par catégorie si besoin).</t>
+  </si>
+  <si>
+    <t>POST : Ajouter un livre (accessible uniquement aux utilisateurs).</t>
+  </si>
+  <si>
+    <t>PUT : Modifier un livre (accessible uniquement aux utilisateurs ayant ajouté ce livre).</t>
+  </si>
+  <si>
+    <t>DELETE : Supprimer un livre (accessible uniquement aux utilisateurs ayant ajouté ce livre).</t>
+  </si>
+  <si>
+    <t>GET : Récupérer toutes les catégories disponibles.</t>
+  </si>
+  <si>
+    <t>POST : Créer un utilisateur (s'inscrire).</t>
+  </si>
+  <si>
+    <t>GET : Récupérer les informations d'un utilisateur connecté (profil).</t>
+  </si>
+  <si>
+    <t>POST : Authentification de l'utilisateur avec JWT.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"livre": 1,
+"titre": "1984",
+"annee_edition" : "2000-01-01",
+"lien_image": "/image.png",
+"lien_pdf": "/text.pdf",
+"resume": "text",
+"editeur": "text",
+"nombre_de_page": 350,
+}
+</t>
+  </si>
+  <si>
+    <t>{
+"livre": 1,
+"titre": "1984",
+"annee_edition" : "2000-10-01",
+"lien_image": "/image1.png",
+"lien_pdf": "/text.pdf",
+"resume": "text",
+"editeur": "text",
+"nombre_de_page": 340,
+}</t>
+  </si>
+  <si>
+    <t>{
+"utilisateur_id": 1,
+"hashed_password": "21o35h2notinp4gb3n[0gb024bgmasdkg123",
+"username" : "Yosef",
+"date_creation": "2025-11-02",
+"is_admin": "1",
+}</t>
+  </si>
+  <si>
+    <t>{
+"hashed_password": "21o35h2notinp4gb3n[0gb024bgmasdkg123",
+"username" : "Yosef",
+}</t>
   </si>
 </sst>
 </file>
@@ -264,12 +328,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="4">
@@ -327,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -337,6 +407,13 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -618,15 +695,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="M3" sqref="M3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="4" width="33.5703125" customWidth="1"/>
+    <col min="1" max="3" width="33.5703125" customWidth="1"/>
+    <col min="4" max="4" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -643,7 +721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -651,29 +729,39 @@
         <v>17</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="165" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C3" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="150" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C4" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>20</v>
       </c>
@@ -681,7 +769,9 @@
         <v>17</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="D5" s="6" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -691,19 +781,25 @@
         <v>21</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D6" s="6" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="135" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C7" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -711,81 +807,87 @@
         <v>22</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="D8" s="6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
+      <c r="C9" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
+      <c r="A10" s="7"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="5" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
-        <v>5</v>
+      <c r="A16" s="5" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>7</v>
+      <c r="A18" s="4" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
+      <c r="A20" s="4" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>10</v>
+      <c r="A21" s="5" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
         <v>16</v>
       </c>
     </row>
